--- a/mbs-perturbation/nano/MLP/nano-mlp-results.xlsx
+++ b/mbs-perturbation/nano/MLP/nano-mlp-results.xlsx
@@ -470,13 +470,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9955607476635514</v>
+        <v>0.9899532710280374</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5238095238095238</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6875000000000001</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9957522915269393</v>
+        <v>0.952157388777107</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8695652173913043</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9302325581395349</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9938967136150235</v>
+        <v>0.9746478873239437</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="C5" t="n">
         <v>0.3</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3157894736842105</v>
+        <v>0.2857142857142856</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6306338028169014</v>
+        <v>0.5278169014084506</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6428571428571429</v>
+        <v>0.5</v>
       </c>
       <c r="C6" t="n">
-        <v>0.45</v>
+        <v>0.05</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5294117647058824</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8029342723004695</v>
+        <v>0.7257042253521128</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7691511387163561</v>
+        <v>0.5545454545454545</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5547619047619048</v>
+        <v>0.26</v>
       </c>
       <c r="D7" t="n">
-        <v>0.625920092639259</v>
+        <v>0.3052763661459313</v>
       </c>
       <c r="E7" t="n">
-        <v>0.883755565584577</v>
+        <v>0.8340559347779303</v>
       </c>
     </row>
   </sheetData>

--- a/mbs-perturbation/nano/MLP/nano-mlp-results.xlsx
+++ b/mbs-perturbation/nano/MLP/nano-mlp-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2608695652173913</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9899532710280374</v>
+        <v>0.4991861096039066</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.4799999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>0.952157388777107</v>
+        <v>0.9023331524688009</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="D4" t="n">
-        <v>0.888888888888889</v>
+        <v>0.2068965517241379</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9746478873239437</v>
+        <v>0.7474226804123711</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2727272727272727</v>
+        <v>0.64</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2857142857142856</v>
+        <v>0.7272727272727272</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5278169014084506</v>
+        <v>0.96250340878102</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="C6" t="n">
-        <v>0.05</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="D6" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7257042253521128</v>
+        <v>0.8940550859012817</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5545454545454545</v>
+        <v>0.5603232323232323</v>
       </c>
       <c r="C7" t="n">
-        <v>0.26</v>
+        <v>0.3491228070175438</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3052763661459313</v>
+        <v>0.3971195700850872</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8340559347779303</v>
+        <v>0.801100087433476</v>
       </c>
     </row>
   </sheetData>
